--- a/paperasse/journal de bord.xlsx
+++ b/paperasse/journal de bord.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600"/>
@@ -11,21 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>commencer rfepartition tache</t>
-  </si>
-  <si>
-    <t>creation BDD sans valeur</t>
-  </si>
-  <si>
-    <t>Gant grossièrement fait</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -36,76 +27,16 @@
     <t>difficulté rencontré</t>
   </si>
   <si>
-    <t>difficulté trouver but du mini projet</t>
-  </si>
-  <si>
-    <t>révision de la BDD &amp; ajout de quelque valeurs</t>
-  </si>
-  <si>
-    <t>commencer comprention matos</t>
-  </si>
-  <si>
-    <t>connexion a la BDD faites dans l'index (possiblement a deplacer)</t>
-  </si>
-  <si>
-    <t>que linterface donner ?</t>
-  </si>
-  <si>
-    <t>automatisation de la connexion</t>
-  </si>
-  <si>
-    <t>mis le projet sur GIT</t>
-  </si>
-  <si>
-    <t>gant complété</t>
-  </si>
-  <si>
-    <t>Ajout de liens a la BDD et rerévision</t>
-  </si>
-  <si>
-    <t>commencement a intégrer un formlaire connexion &amp; inscription</t>
-  </si>
-  <si>
-    <t>API rest en reflexion &amp; non fonctionnel</t>
-  </si>
-  <si>
-    <t>que mettre dans l'API rest</t>
-  </si>
-  <si>
-    <t>des liens dans la BDD difficile a comprendre</t>
-  </si>
-  <si>
-    <t>idcompte champ de tableau invalide (liens mal fait)</t>
-  </si>
-  <si>
-    <t>page inscription/connexion fonctionnel</t>
-  </si>
-  <si>
-    <t>page de planning fonctionnel</t>
-  </si>
-  <si>
-    <t>preparation doc pour présentation oral au client</t>
-  </si>
-  <si>
-    <t>la page du scanner fontionne</t>
-  </si>
-  <si>
-    <t>perte du journal de bord a partir de 07/10/2021 mais pas code</t>
-  </si>
-  <si>
-    <t>page reommé pour ne plus être administrateur, gérant et formateur</t>
-  </si>
-  <si>
-    <t>la page de scan est plus difficile a utiliser sans scan</t>
-  </si>
-  <si>
-    <t>l'utilisateur peut cliquer partout sur la page de scan normalement si il scan son réusultat seras affiché si dans la BDD</t>
-  </si>
-  <si>
-    <t>système de sécu couteux en ressource par rapport a la page</t>
-  </si>
-  <si>
     <t>remise en forme du site</t>
+  </si>
+  <si>
+    <t>entrainement QT</t>
+  </si>
+  <si>
+    <t>decouverte QT serial</t>
+  </si>
+  <si>
+    <t>doc de l'arraigné superflue</t>
   </si>
 </sst>
 </file>
@@ -441,7 +372,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -454,7 +385,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>44473</v>
@@ -471,89 +402,31 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>44480</v>
@@ -567,35 +440,12 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/paperasse/journal de bord.xlsx
+++ b/paperasse/journal de bord.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600"/>
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -27,9 +27,6 @@
     <t>difficulté rencontré</t>
   </si>
   <si>
-    <t>remise en forme du site</t>
-  </si>
-  <si>
     <t>entrainement QT</t>
   </si>
   <si>
@@ -37,13 +34,40 @@
   </si>
   <si>
     <t>doc de l'arraigné superflue</t>
+  </si>
+  <si>
+    <t>installationROBOTIS pour programmer robot</t>
+  </si>
+  <si>
+    <t>commencement du développement de la fenetre utilisateur (manette virtuelle)</t>
+  </si>
+  <si>
+    <t>cervo moteur de l'araignée assez puissant faisant sauterl e support de la carte arduino</t>
+  </si>
+  <si>
+    <t>QT creator n'avais pas toutes les ressources pour commencer a développer la fenetre principal</t>
+  </si>
+  <si>
+    <t>Debut Apprentissage lent du language de prog du robot</t>
+  </si>
+  <si>
+    <t>debut utilisation tramme serie envoyé</t>
+  </si>
+  <si>
+    <t>finalisatoin design fenetre qt</t>
+  </si>
+  <si>
+    <t>architcture des programmes arduino</t>
+  </si>
+  <si>
+    <t>comprehension de la personnalisation des winget QT pas encore optiale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +75,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,16 +123,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Début du projet" xfId="3"/>
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -380,73 +460,205 @@
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="84.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="C1" s="1">
-        <v>44474</v>
+        <v>44530</v>
       </c>
       <c r="D1" s="1">
-        <v>44475</v>
+        <v>44531</v>
       </c>
       <c r="E1" s="1">
-        <v>44476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+        <v>44532</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>44480</v>
+        <f>F1+1</f>
+        <v>44534</v>
       </c>
       <c r="C10" s="1">
-        <v>44481</v>
+        <f>B10+1</f>
+        <v>44535</v>
       </c>
       <c r="D10" s="1">
-        <v>44482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+        <f t="shared" ref="D10:F10" si="0">C10+1</f>
+        <v>44536</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>44537</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>44538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paperasse/journal de bord.xlsx
+++ b/paperasse/journal de bord.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>comprehension de la personnalisation des winget QT pas encore optiale</t>
+  </si>
+  <si>
+    <t>formulaire QT adaptatif &amp; regroupement des wingets</t>
+  </si>
+  <si>
+    <t>finalisation de la fonction se lever du robot</t>
+  </si>
+  <si>
+    <t>Thomas n'arrive pas éditer la taille des winget dans les layout</t>
+  </si>
+  <si>
+    <t>cervo moteur sont difficile a visualiser théoriquement, l'emplacement qu'il doivent prendre se test et ne se calcul pas</t>
   </si>
 </sst>
 </file>
@@ -452,7 +464,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -498,6 +510,9 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3"/>
@@ -510,6 +525,9 @@
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -549,6 +567,9 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
@@ -559,6 +580,9 @@
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
